--- a/data_year/zb/科技/高技术产业生产经营情况/高技术产业出口交货值.xlsx
+++ b/data_year/zb/科技/高技术产业生产经营情况/高技术产业出口交货值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,623 +538,469 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>403635.9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7319723.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5555139.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6290504.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3519898.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10839622.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9485827.800000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22271437.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2267290.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1495436</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59178776.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>195885315.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>57564738.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>151780065.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>67106795.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>77414851.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2024979</v>
+      </c>
+      <c r="S2" t="n">
+        <v>48796319.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>251613.3</v>
+      </c>
       <c r="U2" t="n">
-        <v>33883800</v>
+        <v>370016000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>543218.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7606663.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5790504.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6346368</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4144674</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11751337.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10304814.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26006253.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2275961</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1815175.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>61186495.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>222399040</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70254123.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>158798645.1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>67201829.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>85090513.40000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2749480.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>56515261.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>370439.5</v>
+      </c>
       <c r="U3" t="n">
-        <v>176359745.3</v>
+        <v>406003317.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>546639.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8079496.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9644885.699999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6989446.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3941643.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12021139.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11649212.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28853702.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3323436.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1839089.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>65970583.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>270490030.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>83766218.90000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>169263655.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>21186823.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>95009096.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3586899.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>70550271.40000001</v>
+      </c>
+      <c r="T4" t="n">
+        <v>581417.6</v>
+      </c>
       <c r="U4" t="n">
-        <v>315039400</v>
+        <v>467010937.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>483687</v>
+        <v>482215.6</v>
       </c>
       <c r="C5" t="n">
-        <v>5787567</v>
+        <v>9065725.6</v>
       </c>
       <c r="D5" t="n">
-        <v>5244325</v>
+        <v>12526567.1</v>
       </c>
       <c r="E5" t="n">
-        <v>4945471</v>
+        <v>7244460.4</v>
       </c>
       <c r="F5" t="n">
-        <v>2805667</v>
+        <v>4452189.7</v>
       </c>
       <c r="G5" t="n">
-        <v>8593234</v>
+        <v>13517915.3</v>
       </c>
       <c r="H5" t="n">
-        <v>7471661</v>
+        <v>11841674.6</v>
       </c>
       <c r="I5" t="n">
-        <v>18857491</v>
+        <v>32952192.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1598409</v>
+        <v>5749506.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1002391</v>
+        <v>1941409.9</v>
       </c>
       <c r="L5" t="n">
-        <v>43977557</v>
+        <v>63089742.8</v>
       </c>
       <c r="M5" t="n">
-        <v>155420076</v>
+        <v>287383675.4</v>
       </c>
       <c r="N5" t="n">
-        <v>40904484</v>
+        <v>84117743.3</v>
       </c>
       <c r="O5" t="n">
-        <v>121430347</v>
+        <v>176407068.1</v>
       </c>
       <c r="P5" t="n">
-        <v>48820088</v>
+        <v>18754110.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>67999881</v>
+        <v>105247509.2</v>
       </c>
       <c r="R5" t="n">
-        <v>2082024</v>
+        <v>3700573</v>
       </c>
       <c r="S5" t="n">
-        <v>44810878</v>
+        <v>81029274.8</v>
       </c>
       <c r="T5" t="n">
-        <v>26931</v>
+        <v>912761.7</v>
       </c>
       <c r="U5" t="n">
-        <v>294353000</v>
+        <v>492850906.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>403635.9</v>
+        <v>755926</v>
       </c>
       <c r="C6" t="n">
-        <v>7319723.3</v>
+        <v>9296763.300000001</v>
       </c>
       <c r="D6" t="n">
-        <v>5555139.7</v>
+        <v>14608408.1</v>
       </c>
       <c r="E6" t="n">
-        <v>6290504.5</v>
+        <v>7516657.1</v>
       </c>
       <c r="F6" t="n">
-        <v>3519898.8</v>
+        <v>4760983.3</v>
       </c>
       <c r="G6" t="n">
-        <v>10839622.1</v>
+        <v>14057746.6</v>
       </c>
       <c r="H6" t="n">
-        <v>9485827.800000001</v>
+        <v>13123152.6</v>
       </c>
       <c r="I6" t="n">
-        <v>22271437.3</v>
+        <v>33484205.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2267290.2</v>
+        <v>5530577.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1495436</v>
+        <v>2345490.6</v>
       </c>
       <c r="L6" t="n">
-        <v>59178776.8</v>
+        <v>64610386.4</v>
       </c>
       <c r="M6" t="n">
-        <v>195885315.2</v>
+        <v>314868318.4</v>
       </c>
       <c r="N6" t="n">
-        <v>57564738.5</v>
+        <v>94396096</v>
       </c>
       <c r="O6" t="n">
-        <v>151780065.4</v>
+        <v>161548991.7</v>
       </c>
       <c r="P6" t="n">
-        <v>67106795.1</v>
+        <v>19169901.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>77414851.8</v>
+        <v>93232917</v>
       </c>
       <c r="R6" t="n">
-        <v>2024979</v>
+        <v>4053799.3</v>
       </c>
       <c r="S6" t="n">
-        <v>48796319.4</v>
+        <v>95031895.2</v>
       </c>
       <c r="T6" t="n">
-        <v>251613.3</v>
+        <v>529232</v>
       </c>
       <c r="U6" t="n">
-        <v>370016000</v>
+        <v>507652008.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>543218.9</v>
+        <v>577834.3</v>
       </c>
       <c r="C7" t="n">
-        <v>7606663.3</v>
+        <v>9709751.1</v>
       </c>
       <c r="D7" t="n">
-        <v>5790504.9</v>
+        <v>13587174.8</v>
       </c>
       <c r="E7" t="n">
-        <v>6346368</v>
+        <v>7351620.7</v>
       </c>
       <c r="F7" t="n">
-        <v>4144674</v>
+        <v>4779833.9</v>
       </c>
       <c r="G7" t="n">
-        <v>11751337.3</v>
+        <v>14489585</v>
       </c>
       <c r="H7" t="n">
-        <v>10304814.9</v>
+        <v>13419733.9</v>
       </c>
       <c r="I7" t="n">
-        <v>26006253.8</v>
+        <v>34101798</v>
       </c>
       <c r="J7" t="n">
-        <v>2275961</v>
+        <v>5536745</v>
       </c>
       <c r="K7" t="n">
-        <v>1815175.3</v>
+        <v>2735107.4</v>
       </c>
       <c r="L7" t="n">
-        <v>61186495.5</v>
+        <v>60287122.1</v>
       </c>
       <c r="M7" t="n">
-        <v>222399040</v>
+        <v>353218511.7</v>
       </c>
       <c r="N7" t="n">
-        <v>70254123.7</v>
+        <v>93525061.7</v>
       </c>
       <c r="O7" t="n">
-        <v>158798645.1</v>
+        <v>119948131.5</v>
       </c>
       <c r="P7" t="n">
-        <v>67201829.2</v>
+        <v>19900195.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>85090513.40000001</v>
+        <v>70546661.09999999</v>
       </c>
       <c r="R7" t="n">
-        <v>2749480.1</v>
+        <v>4334897.1</v>
       </c>
       <c r="S7" t="n">
-        <v>56515261.6</v>
+        <v>138098085.1</v>
       </c>
       <c r="T7" t="n">
-        <v>370439.5</v>
+        <v>395172.5</v>
       </c>
       <c r="U7" t="n">
-        <v>406003317.4</v>
+        <v>509231256.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546639.7</v>
+        <v>669314.2</v>
       </c>
       <c r="C8" t="n">
-        <v>8079496.2</v>
+        <v>9636297</v>
       </c>
       <c r="D8" t="n">
-        <v>9644885.699999999</v>
+        <v>14538750.5</v>
       </c>
       <c r="E8" t="n">
-        <v>6989446.3</v>
+        <v>7963838.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3941643.2</v>
+        <v>5010905.1</v>
       </c>
       <c r="G8" t="n">
-        <v>12021139.4</v>
+        <v>14647202.1</v>
       </c>
       <c r="H8" t="n">
-        <v>11649212.5</v>
+        <v>14604230.8</v>
       </c>
       <c r="I8" t="n">
-        <v>28853702.8</v>
+        <v>34830051.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3323436.8</v>
+        <v>6400480.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1839089.2</v>
+        <v>3112433.1</v>
       </c>
       <c r="L8" t="n">
-        <v>65970583.6</v>
+        <v>60058365.8</v>
       </c>
       <c r="M8" t="n">
-        <v>270490030.5</v>
+        <v>362964950.8</v>
       </c>
       <c r="N8" t="n">
-        <v>83766218.90000001</v>
+        <v>94315503.3</v>
       </c>
       <c r="O8" t="n">
-        <v>169263655.5</v>
+        <v>121574479.2</v>
       </c>
       <c r="P8" t="n">
-        <v>21186823.8</v>
+        <v>18665368.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>95009096.7</v>
+        <v>74788393.40000001</v>
       </c>
       <c r="R8" t="n">
-        <v>3586899.2</v>
+        <v>5411465.4</v>
       </c>
       <c r="S8" t="n">
-        <v>70550271.40000001</v>
+        <v>144578032.9</v>
       </c>
       <c r="T8" t="n">
-        <v>581417.6</v>
+        <v>481725.4</v>
       </c>
       <c r="U8" t="n">
-        <v>467010937.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>482215.6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9065725.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12526567.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7244460.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4452189.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13517915.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11841674.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>32952192.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5749506.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1941409.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>63089742.8</v>
-      </c>
-      <c r="M9" t="n">
-        <v>287383675.4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>84117743.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>176407068.1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>18754110.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>105247509.2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3700573</v>
-      </c>
-      <c r="S9" t="n">
-        <v>81029274.8</v>
-      </c>
-      <c r="T9" t="n">
-        <v>912761.7</v>
-      </c>
-      <c r="U9" t="n">
-        <v>492850906.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>755926</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9296763.300000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14608408.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7516657.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4760983.3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14057746.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>13123152.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>33484205.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5530577.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2345490.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>64610386.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>314868318.4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>94396096</v>
-      </c>
-      <c r="O10" t="n">
-        <v>161548991.7</v>
-      </c>
-      <c r="P10" t="n">
-        <v>19169901.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>93232917</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4053799.3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>95031895.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>529232</v>
-      </c>
-      <c r="U10" t="n">
-        <v>507652008.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>577834.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9709751.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13587174.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7351620.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4779833.9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14489585</v>
-      </c>
-      <c r="H11" t="n">
-        <v>13419733.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>34101798</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5536745</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2735107.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>60287122.1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>353218511.7</v>
-      </c>
-      <c r="N11" t="n">
-        <v>93525061.7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>119948131.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>19900195.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>70546661.09999999</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4334897.1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>138098085.1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>395172.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>509231256.4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>669314.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9636297</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14538750.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7963838.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5010905.1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14647202.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>14604230.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>34830051.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6400480.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3112433.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>60058365.8</v>
-      </c>
-      <c r="M12" t="n">
-        <v>362964950.8</v>
-      </c>
-      <c r="N12" t="n">
-        <v>94315503.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>121574479.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>18665368.8</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>74788393.40000001</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5411465.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>144578032.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>481725.4</v>
-      </c>
-      <c r="U12" t="n">
         <v>524446066.4</v>
       </c>
     </row>
